--- a/ColoredCharsEngine/Types/Types.xlsx
+++ b/ColoredCharsEngine/Types/Types.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\C#\Game\ColoredCharsEngine\Types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787F8A2C-FA88-44DF-AF78-72A3E5797CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EC2467-D619-4B13-B114-2238E7DF44A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12255" yWindow="1725" windowWidth="2850" windowHeight="5760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24540" yWindow="6075" windowWidth="7500" windowHeight="6000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="25">
   <si>
     <t>+ -&gt;</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>a = b.ToA()</t>
+  </si>
+  <si>
+    <t>2, 3, 4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2, 4</t>
   </si>
 </sst>
 </file>
@@ -496,7 +505,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -609,15 +618,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,13 +642,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB1CC8A-9440-49B8-887A-27B74B73D222}">
   <dimension ref="B1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1224,7 @@
       <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="56" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="48" t="s">
@@ -1206,16 +1239,16 @@
       <c r="H3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="5">
-        <v>2</v>
-      </c>
-      <c r="K3" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="J3" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="67" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1223,31 +1256,31 @@
       <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="60" t="s">
+      <c r="D4" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="58" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="68">
+        <v>3</v>
+      </c>
+      <c r="J4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="10">
+      <c r="K4" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="71">
         <v>4</v>
       </c>
     </row>
@@ -1255,31 +1288,31 @@
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="63" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="60" t="s">
+      <c r="E5" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="58" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="56" t="s">
+      <c r="I5" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="71">
         <v>4</v>
       </c>
     </row>
@@ -1290,10 +1323,10 @@
       <c r="C6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="57" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="52" t="s">
@@ -1302,16 +1335,16 @@
       <c r="H6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="16">
-        <v>3</v>
-      </c>
-      <c r="L6" s="58" t="s">
+      <c r="I6" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="76">
+        <v>3</v>
+      </c>
+      <c r="L6" s="72" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1373,5 +1406,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J3" twoDigitTextYear="1"/>
+    <ignoredError sqref="I5:I6" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>